--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.73119922575031</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H2">
-        <v>5.73119922575031</v>
+        <v>33.748769</v>
       </c>
       <c r="I2">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J2">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4405272346025</v>
+        <v>10.779612</v>
       </c>
       <c r="N2">
-        <v>10.4405272346025</v>
+        <v>32.338836</v>
       </c>
       <c r="O2">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="P2">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="Q2">
-        <v>59.83674160337888</v>
+        <v>121.266211765876</v>
       </c>
       <c r="R2">
-        <v>59.83674160337888</v>
+        <v>1091.395905892884</v>
       </c>
       <c r="S2">
-        <v>0.003282881259687582</v>
+        <v>0.006361606897983426</v>
       </c>
       <c r="T2">
-        <v>0.003282881259687582</v>
+        <v>0.006361606897983423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.73119922575031</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H3">
-        <v>5.73119922575031</v>
+        <v>33.748769</v>
       </c>
       <c r="I3">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J3">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.5411116393123</v>
+        <v>38.54369466666667</v>
       </c>
       <c r="N3">
-        <v>38.5411116393123</v>
+        <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393066</v>
       </c>
       <c r="P3">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393065</v>
       </c>
       <c r="Q3">
-        <v>220.8867891867829</v>
+        <v>433.6007492372884</v>
       </c>
       <c r="R3">
-        <v>220.8867891867829</v>
+        <v>3902.406743135596</v>
       </c>
       <c r="S3">
-        <v>0.01211872640960957</v>
+        <v>0.02274662890141441</v>
       </c>
       <c r="T3">
-        <v>0.01211872640960957</v>
+        <v>0.02274662890141441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.73119922575031</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H4">
-        <v>5.73119922575031</v>
+        <v>33.748769</v>
       </c>
       <c r="I4">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J4">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3813090451176</v>
+        <v>12.62567333333333</v>
       </c>
       <c r="N4">
-        <v>12.3813090451176</v>
+        <v>37.87702</v>
       </c>
       <c r="O4">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="P4">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="Q4">
-        <v>70.9597488131533</v>
+        <v>142.0336442653755</v>
       </c>
       <c r="R4">
-        <v>70.9597488131533</v>
+        <v>1278.30279838838</v>
       </c>
       <c r="S4">
-        <v>0.003893133605351344</v>
+        <v>0.007451063226488924</v>
       </c>
       <c r="T4">
-        <v>0.003893133605351344</v>
+        <v>0.007451063226488921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.73119922575031</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H5">
-        <v>5.73119922575031</v>
+        <v>33.748769</v>
       </c>
       <c r="I5">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J5">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0226973755425</v>
+        <v>19.64719066666667</v>
       </c>
       <c r="N5">
-        <v>19.0226973755425</v>
+        <v>58.94157200000001</v>
       </c>
       <c r="O5">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="P5">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="Q5">
-        <v>109.0228684703916</v>
+        <v>221.0228331027631</v>
       </c>
       <c r="R5">
-        <v>109.0228684703916</v>
+        <v>1989.205497924868</v>
       </c>
       <c r="S5">
-        <v>0.005981427500701715</v>
+        <v>0.01159482397613775</v>
       </c>
       <c r="T5">
-        <v>0.005981427500701715</v>
+        <v>0.01159482397613775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>207.313750010913</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H6">
-        <v>207.313750010913</v>
+        <v>624.813553</v>
       </c>
       <c r="I6">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J6">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.4405272346025</v>
+        <v>10.779612</v>
       </c>
       <c r="N6">
-        <v>10.4405272346025</v>
+        <v>32.338836</v>
       </c>
       <c r="O6">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="P6">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="Q6">
-        <v>2164.464853096511</v>
+        <v>2245.082557893812</v>
       </c>
       <c r="R6">
-        <v>2164.464853096511</v>
+        <v>20205.74302104431</v>
       </c>
       <c r="S6">
-        <v>0.118751137061944</v>
+        <v>0.1177766871650439</v>
       </c>
       <c r="T6">
-        <v>0.118751137061944</v>
+        <v>0.1177766871650439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>207.313750010913</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H7">
-        <v>207.313750010913</v>
+        <v>624.813553</v>
       </c>
       <c r="I7">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J7">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5411116393123</v>
+        <v>38.54369466666667</v>
       </c>
       <c r="N7">
-        <v>38.5411116393123</v>
+        <v>115.631084</v>
       </c>
       <c r="O7">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393066</v>
       </c>
       <c r="P7">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393065</v>
       </c>
       <c r="Q7">
-        <v>7990.102383535079</v>
+        <v>8027.54093680905</v>
       </c>
       <c r="R7">
-        <v>7990.102383535079</v>
+        <v>72247.86843128144</v>
       </c>
       <c r="S7">
-        <v>0.4383687459413934</v>
+        <v>0.4211235681711895</v>
       </c>
       <c r="T7">
-        <v>0.4383687459413934</v>
+        <v>0.4211235681711893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>207.313750010913</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H8">
-        <v>207.313750010913</v>
+        <v>624.813553</v>
       </c>
       <c r="I8">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J8">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.3813090451176</v>
+        <v>12.62567333333333</v>
       </c>
       <c r="N8">
-        <v>12.3813090451176</v>
+        <v>37.87702</v>
       </c>
       <c r="O8">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="P8">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="Q8">
-        <v>2566.815608187366</v>
+        <v>2629.563938139117</v>
       </c>
       <c r="R8">
-        <v>2566.815608187366</v>
+        <v>23666.07544325206</v>
       </c>
       <c r="S8">
-        <v>0.1408256972454539</v>
+        <v>0.1379465214915006</v>
       </c>
       <c r="T8">
-        <v>0.1408256972454539</v>
+        <v>0.1379465214915005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>207.313750010913</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H9">
-        <v>207.313750010913</v>
+        <v>624.813553</v>
       </c>
       <c r="I9">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J9">
-        <v>0.914310797499904</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.0226973755425</v>
+        <v>19.64719066666667</v>
       </c>
       <c r="N9">
-        <v>19.0226973755425</v>
+        <v>58.94157200000001</v>
       </c>
       <c r="O9">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="P9">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="Q9">
-        <v>3943.666728246469</v>
+        <v>4091.94366896948</v>
       </c>
       <c r="R9">
-        <v>3943.666728246469</v>
+        <v>36827.49302072532</v>
       </c>
       <c r="S9">
-        <v>0.2163652172511129</v>
+        <v>0.2146627382154359</v>
       </c>
       <c r="T9">
-        <v>0.2163652172511129</v>
+        <v>0.2146627382154358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.93170677142823</v>
+        <v>3.262842333333333</v>
       </c>
       <c r="H10">
-        <v>2.93170677142823</v>
+        <v>9.788527</v>
       </c>
       <c r="I10">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="J10">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.4405272346025</v>
+        <v>10.779612</v>
       </c>
       <c r="N10">
-        <v>10.4405272346025</v>
+        <v>32.338836</v>
       </c>
       <c r="O10">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="P10">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="Q10">
-        <v>30.608564390965</v>
+        <v>35.172174370508</v>
       </c>
       <c r="R10">
-        <v>30.608564390965</v>
+        <v>316.549569334572</v>
       </c>
       <c r="S10">
-        <v>0.001679307390952008</v>
+        <v>0.001845126881051484</v>
       </c>
       <c r="T10">
-        <v>0.001679307390952008</v>
+        <v>0.001845126881051483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.93170677142823</v>
+        <v>3.262842333333333</v>
       </c>
       <c r="H11">
-        <v>2.93170677142823</v>
+        <v>9.788527</v>
       </c>
       <c r="I11">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="J11">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.5411116393123</v>
+        <v>38.54369466666667</v>
       </c>
       <c r="N11">
-        <v>38.5411116393123</v>
+        <v>115.631084</v>
       </c>
       <c r="O11">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393066</v>
       </c>
       <c r="P11">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393065</v>
       </c>
       <c r="Q11">
-        <v>112.9912379713432</v>
+        <v>125.7619986414742</v>
       </c>
       <c r="R11">
-        <v>112.9912379713432</v>
+        <v>1131.857987773268</v>
       </c>
       <c r="S11">
-        <v>0.006199148010159639</v>
+        <v>0.006597455188972236</v>
       </c>
       <c r="T11">
-        <v>0.006199148010159639</v>
+        <v>0.006597455188972234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.93170677142823</v>
+        <v>3.262842333333333</v>
       </c>
       <c r="H12">
-        <v>2.93170677142823</v>
+        <v>9.788527</v>
       </c>
       <c r="I12">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="J12">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.3813090451176</v>
+        <v>12.62567333333333</v>
       </c>
       <c r="N12">
-        <v>12.3813090451176</v>
+        <v>37.87702</v>
       </c>
       <c r="O12">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="P12">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="Q12">
-        <v>36.29836756671686</v>
+        <v>41.19558143883778</v>
       </c>
       <c r="R12">
-        <v>36.29836756671686</v>
+        <v>370.76023294954</v>
       </c>
       <c r="S12">
-        <v>0.001991472587726893</v>
+        <v>0.002161113893404348</v>
       </c>
       <c r="T12">
-        <v>0.001991472587726893</v>
+        <v>0.002161113893404347</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.93170677142823</v>
+        <v>3.262842333333333</v>
       </c>
       <c r="H13">
-        <v>2.93170677142823</v>
+        <v>9.788527</v>
       </c>
       <c r="I13">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="J13">
-        <v>0.01292963518377007</v>
+        <v>0.01396667040408609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0226973755425</v>
+        <v>19.64719066666667</v>
       </c>
       <c r="N13">
-        <v>19.0226973755425</v>
+        <v>58.94157200000001</v>
       </c>
       <c r="O13">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="P13">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="Q13">
-        <v>55.76897070670796</v>
+        <v>64.10568543827156</v>
       </c>
       <c r="R13">
-        <v>55.76897070670796</v>
+        <v>576.9511689444441</v>
       </c>
       <c r="S13">
-        <v>0.003059707194931533</v>
+        <v>0.003362974440658022</v>
       </c>
       <c r="T13">
-        <v>0.003059707194931533</v>
+        <v>0.00336297444065802</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.7665374199996</v>
+        <v>10.83271733333333</v>
       </c>
       <c r="H14">
-        <v>10.7665374199996</v>
+        <v>32.498152</v>
       </c>
       <c r="I14">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071965</v>
       </c>
       <c r="J14">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071963</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4405272346025</v>
+        <v>10.779612</v>
       </c>
       <c r="N14">
-        <v>10.4405272346025</v>
+        <v>32.338836</v>
       </c>
       <c r="O14">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="P14">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="Q14">
-        <v>112.4083271558728</v>
+        <v>116.772489759008</v>
       </c>
       <c r="R14">
-        <v>112.4083271558728</v>
+        <v>1050.952407831072</v>
       </c>
       <c r="S14">
-        <v>0.006167167208048764</v>
+        <v>0.00612586692969198</v>
       </c>
       <c r="T14">
-        <v>0.006167167208048764</v>
+        <v>0.006125866929691978</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.7665374199996</v>
+        <v>10.83271733333333</v>
       </c>
       <c r="H15">
-        <v>10.7665374199996</v>
+        <v>32.498152</v>
       </c>
       <c r="I15">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071965</v>
       </c>
       <c r="J15">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071963</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.5411116393123</v>
+        <v>38.54369466666667</v>
       </c>
       <c r="N15">
-        <v>38.5411116393123</v>
+        <v>115.631084</v>
       </c>
       <c r="O15">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393066</v>
       </c>
       <c r="P15">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393065</v>
       </c>
       <c r="Q15">
-        <v>414.954320673038</v>
+        <v>417.5329493063076</v>
       </c>
       <c r="R15">
-        <v>414.954320673038</v>
+        <v>3757.796543756768</v>
       </c>
       <c r="S15">
-        <v>0.02276604184087097</v>
+        <v>0.02190371457773049</v>
       </c>
       <c r="T15">
-        <v>0.02276604184087097</v>
+        <v>0.02190371457773048</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.7665374199996</v>
+        <v>10.83271733333333</v>
       </c>
       <c r="H16">
-        <v>10.7665374199996</v>
+        <v>32.498152</v>
       </c>
       <c r="I16">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071965</v>
       </c>
       <c r="J16">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071963</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.3813090451176</v>
+        <v>12.62567333333333</v>
       </c>
       <c r="N16">
-        <v>12.3813090451176</v>
+        <v>37.87702</v>
       </c>
       <c r="O16">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="P16">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="Q16">
-        <v>133.3038271428381</v>
+        <v>136.7703503630044</v>
       </c>
       <c r="R16">
-        <v>133.3038271428381</v>
+        <v>1230.93315326704</v>
       </c>
       <c r="S16">
-        <v>0.007313577314630124</v>
+        <v>0.007174951634415096</v>
       </c>
       <c r="T16">
-        <v>0.007313577314630124</v>
+        <v>0.007174951634415092</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.7665374199996</v>
+        <v>10.83271733333333</v>
       </c>
       <c r="H17">
-        <v>10.7665374199996</v>
+        <v>32.498152</v>
       </c>
       <c r="I17">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071965</v>
       </c>
       <c r="J17">
-        <v>0.04748339854097573</v>
+        <v>0.04636969155071963</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.0226973755425</v>
+        <v>19.64719066666667</v>
       </c>
       <c r="N17">
-        <v>19.0226973755425</v>
+        <v>58.94157200000001</v>
       </c>
       <c r="O17">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="P17">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="Q17">
-        <v>204.8085831231065</v>
+        <v>212.8324628861049</v>
       </c>
       <c r="R17">
-        <v>204.8085831231065</v>
+        <v>1915.492165974944</v>
       </c>
       <c r="S17">
-        <v>0.01123661217742588</v>
+        <v>0.01116515840888209</v>
       </c>
       <c r="T17">
-        <v>0.01123661217742588</v>
+        <v>0.01116515840888208</v>
       </c>
     </row>
   </sheetData>
